--- a/dist/data/profiles/xlsx/bluff/profile 21-22 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 21-22 graph.xlsx
@@ -1374,11 +1374,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="80780073"/>
-        <c:axId val="59126369"/>
+        <c:axId val="81653682"/>
+        <c:axId val="23033401"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80780073"/>
+        <c:axId val="81653682"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,12 +1413,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59126369"/>
+        <c:crossAx val="23033401"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59126369"/>
+        <c:axId val="23033401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,7 +1462,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80780073"/>
+        <c:crossAx val="81653682"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
